--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt2-Fzd4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt2-Fzd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -549,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>19.48350866666667</v>
+        <v>34.97976933333334</v>
       </c>
       <c r="N2">
-        <v>58.450526</v>
+        <v>104.939308</v>
       </c>
       <c r="O2">
-        <v>0.3081250754721726</v>
+        <v>0.4352965780925344</v>
       </c>
       <c r="P2">
-        <v>0.3081250754721727</v>
+        <v>0.4352965780925344</v>
       </c>
       <c r="Q2">
-        <v>9.305583519315556</v>
+        <v>16.70680423052445</v>
       </c>
       <c r="R2">
-        <v>83.75025167384</v>
+        <v>150.36123807472</v>
       </c>
       <c r="S2">
-        <v>0.3081250754721726</v>
+        <v>0.4352965780925344</v>
       </c>
       <c r="T2">
-        <v>0.3081250754721727</v>
+        <v>0.4352965780925344</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,25 +617,25 @@
         <v>20.343383</v>
       </c>
       <c r="N3">
-        <v>61.03014899999999</v>
+        <v>61.03014900000001</v>
       </c>
       <c r="O3">
-        <v>0.3217236961512192</v>
+        <v>0.2531579017099818</v>
       </c>
       <c r="P3">
-        <v>0.3217236961512193</v>
+        <v>0.2531579017099818</v>
       </c>
       <c r="Q3">
-        <v>9.716270965906668</v>
+        <v>9.71627096590667</v>
       </c>
       <c r="R3">
-        <v>87.44643869316</v>
+        <v>87.44643869316002</v>
       </c>
       <c r="S3">
-        <v>0.3217236961512192</v>
+        <v>0.2531579017099818</v>
       </c>
       <c r="T3">
-        <v>0.3217236961512193</v>
+        <v>0.2531579017099818</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,90 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.275017</v>
+        <v>25.035323</v>
       </c>
       <c r="N4">
-        <v>69.825051</v>
+        <v>75.105969</v>
       </c>
       <c r="O4">
-        <v>0.3680864926557428</v>
+        <v>0.3115455201974837</v>
       </c>
       <c r="P4">
-        <v>0.3680864926557428</v>
+        <v>0.3115455201974837</v>
       </c>
       <c r="Q4">
-        <v>11.11645845276</v>
+        <v>11.95720406910667</v>
       </c>
       <c r="R4">
-        <v>100.04812607484</v>
+        <v>107.61483662196</v>
       </c>
       <c r="S4">
-        <v>0.3680864926557428</v>
+        <v>0.3115455201974837</v>
       </c>
       <c r="T4">
-        <v>0.3680864926557428</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G5">
-        <v>0.4776133333333334</v>
-      </c>
-      <c r="H5">
-        <v>1.43284</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.1305583333333333</v>
-      </c>
-      <c r="N5">
-        <v>0.391675</v>
-      </c>
-      <c r="O5">
-        <v>0.002064735720865253</v>
-      </c>
-      <c r="P5">
-        <v>0.002064735720865253</v>
-      </c>
-      <c r="Q5">
-        <v>0.06235640077777779</v>
-      </c>
-      <c r="R5">
-        <v>0.5612076070000001</v>
-      </c>
-      <c r="S5">
-        <v>0.002064735720865253</v>
-      </c>
-      <c r="T5">
-        <v>0.002064735720865253</v>
+        <v>0.3115455201974837</v>
       </c>
     </row>
   </sheetData>
